--- a/数据整理/stocks/港股/01810-小米集团-W.xlsx
+++ b/数据整理/stocks/港股/01810-小米集团-W.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10598,7 +10599,6 @@
           <t>创金合信汇益纯债一年定期开放债券C</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
           <t>90.16</t>
@@ -10630,7 +10630,6 @@
           <t>创金合信汇誉纯债六个月定期开放债券C</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
           <t>90.16</t>
@@ -10646,6 +10645,4470 @@
       </c>
       <c r="H141" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H117"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>167.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.7718</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009570</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>195.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.0570</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.1198</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达中证海外中国互联网50 QDII-ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>197.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.2552</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.8650</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.7364</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.3172</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009714</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>132.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.2136</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.2122</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>50.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.0284</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>142.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.9894</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>96.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.6227</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.3700</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3.2725</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>101.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3.2105</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010420</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>民生加银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3.0979</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>106.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.9831</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.7740</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>40.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.7128</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>53.94</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.0713</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>34.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.9233</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010289</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城产业趋势混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>76.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>73.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.8639</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>38.46</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.8422</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>41.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.7718</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>19.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.6728</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>81.74</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>46.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.6511</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009571</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>28.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.5905</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010143</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>交银施罗德启欣混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>50.70</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.5717</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004476</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深领先科技股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.3100</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.2804</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010483</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>交银施罗德启道混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>56.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>59.51</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.2371</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.2067</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.1933</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>27.91</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.1108</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>850588</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.0893</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.9197</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008371</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安汇智精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.8498</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.7806</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>25.67</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.7778</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>14.85</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7707</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧科创主题3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.06</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.7249</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6777</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>14.66</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.6289</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>70.55</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.6270</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.5520</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5455</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5260</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5062</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4922</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>81.66</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4831</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4772</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>870017</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发资管消费精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4574</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4040</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3910</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3766</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>26.51</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3367</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3362</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3203</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3002</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2321</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2321</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2321</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2279</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008290</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华安现代生活混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2189</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2048</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1989</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1914</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1912</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1902</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1741</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1646</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1527</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005914</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>景顺长城智能生活混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1371</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>43.71</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>97.20</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>850005</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>850599</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011105</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>95.30</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006778</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011106</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>006779</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/01810-小米集团-W.xlsx
+++ b/数据整理/stocks/港股/01810-小米集团-W.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15114,4 +15115,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>116</v>
+      </c>
+      <c r="D2" t="n">
+        <v>136.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>140</v>
+      </c>
+      <c r="D3" t="n">
+        <v>145.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>126</v>
+      </c>
+      <c r="D4" t="n">
+        <v>122.96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01810-小米集团-W.xlsx
+++ b/数据整理/stocks/港股/01810-小米集团-W.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15123,7 +15124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15134,17 +15135,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15154,14 +15175,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>116</v>
-      </c>
-      <c r="D2" t="n">
-        <v>136.85</v>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>188.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>19.2621</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -15170,14 +15213,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>140</v>
-      </c>
-      <c r="D3" t="n">
-        <v>145.63</v>
+          <t>009570</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>296.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12.6187</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -15186,13 +15251,3137 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>513050</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证海外中国互联网50 QDII-ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>326.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11.4939</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>133.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.6111</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>102.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.1057</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>57.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.5730</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>71.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.9790</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>116.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.8169</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.1132</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2597</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009571</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9426</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9200</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7626</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7579</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6695</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6172</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5968</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>73.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5958</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4907</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012124</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4200</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4070</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>30.76</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3857</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3797</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3677</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3663</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3485</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3453</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3242</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>850588</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>59.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3205</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>870017</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发资管消费精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2641</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2557</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2551</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2515</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2349</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方中证香港科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2348</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>517350</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发中证沪港深科技龙头交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2013</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1826</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1511</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159723</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>517660</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>95.89</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>33.90</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>850005</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>59.12</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013127</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013128</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>73.28</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>850599</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>59.12</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012125</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012559</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深科技龙头指数A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013093</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头指数A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006778</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013129</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深消费龙头指数A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012560</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深科技龙头指数C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006779</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>63.43</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>013094</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头指数C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>013130</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深消费龙头指数C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>82</v>
+      </c>
+      <c r="D2" t="n">
+        <v>83.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>116</v>
+      </c>
+      <c r="D3" t="n">
+        <v>136.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>140</v>
+      </c>
+      <c r="D4" t="n">
+        <v>145.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>126</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>122.96</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01810-小米集团-W.xlsx
+++ b/数据整理/stocks/港股/01810-小米集团-W.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18296,7 +18297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18307,17 +18308,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -18327,14 +18348,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>82</v>
-      </c>
-      <c r="D2" t="n">
-        <v>83.17</v>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>233.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>23.9024</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -18343,14 +18386,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>116</v>
-      </c>
-      <c r="D3" t="n">
-        <v>136.85</v>
+          <t>513050</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证海外中国互联网50 QDII-ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>350.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.0632</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -18359,14 +18424,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>140</v>
-      </c>
-      <c r="D4" t="n">
-        <v>145.63</v>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.3422</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -18375,13 +18462,2697 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>133.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.1565</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.6779</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009570</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>114.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.7661</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>101.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.2039</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1333</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159605</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证海外中国互联网30（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6727</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6233</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6186</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6015</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009571</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>60.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5932</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4824</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4623</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4031</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>14.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3963</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3718</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3572</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159607</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实中证海外中国互联网30ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3352</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3272</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3220</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3103</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2826</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>28.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2826</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012124</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2445</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方中证香港科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>100.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>870017</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发资管消费精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1935</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1857</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>513890</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上投摩根恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1703</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>103.89</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013127</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>37.23</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159751</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>517350</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发中证沪港深科技龙头交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.07</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>513020</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>513160</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华恒生港股通中国科技ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013128</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>513230</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>72.90</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159723</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.07</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>37.23</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>517550</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商中证沪港深消费龙头ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>517660</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012125</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>96.77</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012559</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深科技龙头指数A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>013093</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头指数A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013129</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深消费龙头指数A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012560</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深科技龙头指数C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013094</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头指数C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>013130</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深消费龙头指数C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004321</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>64.32</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>71</v>
+      </c>
+      <c r="D2" t="n">
+        <v>75.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>82</v>
+      </c>
+      <c r="D3" t="n">
+        <v>83.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>116</v>
+      </c>
+      <c r="D4" t="n">
+        <v>136.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>140</v>
+      </c>
+      <c r="D5" t="n">
+        <v>145.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>126</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>122.96</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01810-小米集团-W.xlsx
+++ b/数据整理/stocks/港股/01810-小米集团-W.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D2" t="n">
-        <v>75.63</v>
+        <v>37.58</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D3" t="n">
-        <v>83.17</v>
+        <v>75.63</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D4" t="n">
-        <v>136.85</v>
+        <v>83.17</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="D5" t="n">
-        <v>145.63</v>
+        <v>136.85</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>140</v>
+      </c>
+      <c r="D6" t="n">
+        <v>145.63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>126</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>122.96</v>
       </c>
     </row>
@@ -566,6 +583,2532 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>103.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.6173</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513050</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证海外中国互联网50（QDII）ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>317.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.4584</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>204.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.6696</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3522</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8684</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159605</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证海外中国互联网30（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5746</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9762</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9354</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159636</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信国证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8563</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8544</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7164</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012805</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4995</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513770</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4894</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4791</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4524</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159607</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实中证海外中国互联网30ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3098</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>96.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2881</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2730</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2197</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2154</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012804</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1991</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012124</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博道盛彦混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方中证香港科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013693</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博道盛兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1451</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>513150</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>96.19</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>513890</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>95.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>513020</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013127</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013128</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.71</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝香港大盘（LOF）A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>513380</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发恒生科技（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>96.75</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159751</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>517350</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发中证沪港深科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝香港大盘（LOF）C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>513160</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华恒生港股通中国科技ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>97.79</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>513220</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商中证全球中国互联网ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>513960</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时港股通消费ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159750</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商中证香港科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>513320</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>易方达恒生港股通新经济ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012809</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华中证沪港深科技龙头指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>513230</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>96.82</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>513070</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>易方达中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159723</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>517660</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>517270</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>浦银安盛中证沪港深科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>95.61</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012125</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博道盛彦混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012560</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深科技龙头指数C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012559</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深科技龙头指数A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013093</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头指数A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>160646</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏华中证沪港深科技龙头指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013132</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>创金合信文娱媒体股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>013133</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>创金合信文娱媒体股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013094</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头指数C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3319,7 +5862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6491,7 +9034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10955,7 +13498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16317,7 +18860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01810-小米集团-W.xlsx
+++ b/数据整理/stocks/港股/01810-小米集团-W.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D2" t="n">
-        <v>37.58</v>
+        <v>48.67</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D3" t="n">
-        <v>75.63</v>
+        <v>37.58</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D4" t="n">
-        <v>83.17</v>
+        <v>75.63</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D5" t="n">
-        <v>136.85</v>
+        <v>83.17</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="D6" t="n">
-        <v>145.63</v>
+        <v>136.85</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>140</v>
+      </c>
+      <c r="D7" t="n">
+        <v>145.63</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>126</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>122.96</v>
       </c>
     </row>
@@ -583,6 +600,2988 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>168.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.8098</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513050</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证海外中国互联网50（QDII）ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>364.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.6818</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.6771</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.9159</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达恒生国企（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>101.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5763</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159605</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证海外中国互联网30（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>58.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.5519</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4847</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3090</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1223</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159636</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信国证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0541</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0322</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159607</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实中证海外中国互联网30ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7455</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513770</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7074</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6978</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012805</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6754</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6261</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3628</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3546</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>513260</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3445</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012804</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3279</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>96.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3185</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2750</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>513020</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2664</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>513890</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1753</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012124</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博道盛彦混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1734</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013693</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博道盛兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1708</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方中证香港科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>513150</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝香港大盘（LOF）A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>72.10</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>513160</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银华恒生港股通中国科技ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>96.74</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.94</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159751</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>95.29</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>513380</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发恒生科技（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>513070</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>易方达中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>517350</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发中证沪港深科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159750</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商中证香港科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>513220</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商中证全球中国互联网ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>97.66</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>513960</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时港股通消费ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>96.79</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华宝香港大盘（LOF）C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>513320</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>易方达恒生港股通新经济ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>513230</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华夏中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012809</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华中证沪港深科技龙头指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>159723</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>517760</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>浦银安盛中证沪港深消费龙头ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>517550</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商中证沪港深消费龙头ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>517660</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013889</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>天弘新华沪港深新兴消费品牌指数C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>517270</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>浦银安盛中证沪港深科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>96.97</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012125</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博道盛彦混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159788</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>易方达中证港股通中国100ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013129</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深消费龙头指数A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012560</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深科技龙头指数C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>95.32</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013093</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头指数A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012559</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深科技龙头指数A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>95.32</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013130</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深消费龙头指数C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>160646</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏华中证沪港深科技龙头指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013132</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>创金合信文娱媒体股票A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>013133</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>创金合信文娱媒体股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>013094</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头指数C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>013888</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>天弘新华沪港深新兴消费品牌指数A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3108,7 +6107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5862,7 +8861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9034,7 +12033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13498,7 +16497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18860,7 +21859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
